--- a/src/resources/report.xlsx
+++ b/src/resources/report.xlsx
@@ -6,17 +6,17 @@
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="report.form_type">Sheet1!$C$2</definedName>
     <definedName name="form.checklist">Sheet1!$E$15</definedName>
+    <definedName name="report.formType">Sheet1!$C$2</definedName>
     <definedName name="report.leader">Sheet1!$C$6</definedName>
     <definedName name="form.question">Sheet1!$A$15:$D$15</definedName>
-    <definedName name="report.created_date">Sheet1!$C$10</definedName>
+    <definedName name="report.team">Sheet1!$C$5</definedName>
+    <definedName name="report.createdDate">Sheet1!$C$10</definedName>
     <definedName name="report.member1">Sheet1!$C$8</definedName>
-    <definedName name="report.userName">Sheet1!$C$4</definedName>
     <definedName name="report.member2">Sheet1!$C$9</definedName>
-    <definedName name="report.team">Sheet1!$C$5</definedName>
     <definedName name="report.score">Sheet1!$C$11</definedName>
     <definedName name="report.note">Sheet1!$C$12</definedName>
+    <definedName name="report.fullName">Sheet1!$C$4</definedName>
     <definedName name="report.driller">Sheet1!$C$7</definedName>
   </definedNames>
   <calcPr/>
@@ -484,7 +484,6 @@
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
